--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Testing\Workspace_Maven\TrainerManagement\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707E0F6A-BCC2-4346-A9B9-21FA45658BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625EA54D-B93C-4499-9C9D-9581159F8121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>admin@gmail.com</t>
   </si>
@@ -37,13 +37,25 @@
   </si>
   <si>
     <t>Pass@123</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +67,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,10 +101,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -366,38 +387,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{2C5C6067-75C3-45E3-A2AC-4B858A425638}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{288E93A1-E125-4D7C-A48B-00B602DC1588}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{A01CE05A-8E1B-44AD-B4CF-E825DF3576D5}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2C5C6067-75C3-45E3-A2AC-4B858A425638}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{288E93A1-E125-4D7C-A48B-00B602DC1588}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{A01CE05A-8E1B-44AD-B4CF-E825DF3576D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Testing\Workspace_Maven\TrainerManagement\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625EA54D-B93C-4499-9C9D-9581159F8121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED44401C-4691-4A4F-AE73-02DF796C3DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logins" sheetId="1" r:id="rId1"/>
+    <sheet name="FieldInputs" sheetId="2" r:id="rId2"/>
+    <sheet name="Errors" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +26,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Vysakh</author>
+  </authors>
+  <commentList>
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{ACC00B3D-600B-4CAF-AF6C-4E78C181474C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vysakh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Internal, Empanelled, Industry Expert</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="120">
   <si>
     <t>admin@gmail.com</t>
   </si>
@@ -49,13 +85,349 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Invalid email</t>
+  </si>
+  <si>
+    <t>admin#gmail.com</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Enter valid mail Id</t>
+  </si>
+  <si>
+    <t>Please enter a valid password</t>
+  </si>
+  <si>
+    <t>Email field</t>
+  </si>
+  <si>
+    <t>Password field</t>
+  </si>
+  <si>
+    <t>Invalid login</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Pass12@123</t>
+  </si>
+  <si>
+    <t>Invalid Login Credintials</t>
+  </si>
+  <si>
+    <t>Valid Registration data</t>
+  </si>
+  <si>
+    <t>Peter Parker</t>
+  </si>
+  <si>
+    <t>House No. 10, Express Lane</t>
+  </si>
+  <si>
+    <t>Plus.2</t>
+  </si>
+  <si>
+    <t>C++, Php4</t>
+  </si>
+  <si>
+    <t>TechnoWiz</t>
+  </si>
+  <si>
+    <t>Senior Programmer</t>
+  </si>
+  <si>
+    <t>Abcd@123</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Highest Qualification</t>
+  </si>
+  <si>
+    <t>SkillSet</t>
+  </si>
+  <si>
+    <t>Current Company</t>
+  </si>
+  <si>
+    <t>Current Designation</t>
+  </si>
+  <si>
+    <t>Profile Imgae</t>
+  </si>
+  <si>
+    <t>ICTAK Courses</t>
+  </si>
+  <si>
+    <t>Retype Password</t>
+  </si>
+  <si>
+    <t>Invalid Registration data</t>
+  </si>
+  <si>
+    <t>Peter123</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>House No 20/25</t>
+  </si>
+  <si>
+    <t>Plus-2</t>
+  </si>
+  <si>
+    <t>Test#</t>
+  </si>
+  <si>
+    <t>Tecno@</t>
+  </si>
+  <si>
+    <t>Tester-2</t>
+  </si>
+  <si>
+    <t>Profile Image</t>
+  </si>
+  <si>
+    <t>9895123456</t>
+  </si>
+  <si>
+    <t>Cyber Security Analyst</t>
+  </si>
+  <si>
+    <t>Robotic Process Automation</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>SignUp Page</t>
+  </si>
+  <si>
+    <t>Enter valid name</t>
+  </si>
+  <si>
+    <t>Enter valid mobileNo</t>
+  </si>
+  <si>
+    <t>Enter valid address</t>
+  </si>
+  <si>
+    <t>Enter valid qualification</t>
+  </si>
+  <si>
+    <t>Enter valid skills</t>
+  </si>
+  <si>
+    <t>Enter valid company name</t>
+  </si>
+  <si>
+    <t>Enter valid designation</t>
+  </si>
+  <si>
+    <t>Add your photo</t>
+  </si>
+  <si>
+    <t>Password must contain atleast 1 capital letter,1 small letter,1 digit and 1 special character and require minimum 8 characters</t>
+  </si>
+  <si>
+    <t>Passwords must be same</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Mail id</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Re-Password</t>
+  </si>
+  <si>
+    <t>Trainer Approval</t>
+  </si>
+  <si>
+    <t>Employment Type</t>
+  </si>
+  <si>
+    <t>Approve/Reject</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Empanelled</t>
+  </si>
+  <si>
+    <t>Industry Expert</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search by ID in Allocate </t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ICT6afm0t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainer Pofile Edit </t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>House No. 101, Super Express Lane</t>
+  </si>
+  <si>
+    <t>BTech</t>
+  </si>
+  <si>
+    <t>C++, Php4, Selenium</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>Senior Tester</t>
+  </si>
+  <si>
+    <t>9895112233</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Trainer Pofile Edit - Invalid data</t>
+  </si>
+  <si>
+    <t>Trainer Profile Edit</t>
+  </si>
+  <si>
+    <t>Allocate Trainer</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>CSA001</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/xxm-yym-zzm</t>
+  </si>
+  <si>
+    <t>Course ID</t>
+  </si>
+  <si>
+    <t>Batch ID</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Meeting Link</t>
+  </si>
+  <si>
+    <t>Trainer ID</t>
+  </si>
+  <si>
+    <t>ICTwzwun5</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>11122022</t>
+  </si>
+  <si>
+    <t>15122022</t>
+  </si>
+  <si>
+    <t>Trainer Allocate</t>
+  </si>
+  <si>
+    <t>Choose a course ID</t>
+  </si>
+  <si>
+    <t>Choose a Batch ID</t>
+  </si>
+  <si>
+    <t>Select a time</t>
+  </si>
+  <si>
+    <t>Select a date to start the course</t>
+  </si>
+  <si>
+    <t>Enter meet link/venue</t>
+  </si>
+  <si>
+    <t>End date must be after start date</t>
+  </si>
+  <si>
+    <t>Meeting 2</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>DSA002</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/myy-yym-zzm</t>
+  </si>
+  <si>
+    <t>Place image in "images" folder with name "photo.jpeg"</t>
+  </si>
+  <si>
+    <t>Reject email</t>
+  </si>
+  <si>
+    <t>abcd123-@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +451,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -101,11 +486,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -387,15 +781,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -428,13 +824,846 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{2C5C6067-75C3-45E3-A2AC-4B858A425638}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{288E93A1-E125-4D7C-A48B-00B602DC1588}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{A01CE05A-8E1B-44AD-B4CF-E825DF3576D5}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{CE26DBEC-679B-4D18-8990-477DE6A9F99B}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{6F3364BF-3B2D-4C4D-B205-802EE8F2A382}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738B64A7-167F-4EFF-90D5-5E4B73F5139D}">
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" display="https://i.postimg.cc/0QdxygBL/photo-1511367461989-f85a21fda167-1.jpg" xr:uid="{AB03EC46-9DAA-4AEC-BC85-E8C8965667BD}"/>
+    <hyperlink ref="B6" r:id="rId2" display="Abcd@123" xr:uid="{81A32724-44DD-4927-A2E2-C8684F99CE72}"/>
+    <hyperlink ref="B34" r:id="rId3" xr:uid="{B3512802-BA96-4C03-B1F2-CBB9D0FFF57F}"/>
+    <hyperlink ref="B73" r:id="rId4" xr:uid="{F23155FA-21EA-49CF-94B9-A88103797360}"/>
+    <hyperlink ref="B46" r:id="rId5" xr:uid="{19F134B0-784E-4314-9BAF-21E92DBBEAFC}"/>
+    <hyperlink ref="B81" r:id="rId6" xr:uid="{9805604C-7BFA-4E8E-930E-6990C3F1AF08}"/>
+    <hyperlink ref="B38" r:id="rId7" xr:uid="{245BD048-F850-4030-B2CA-3A112193EAE8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0B9EB2-1CC0-445B-BB76-18B8C00A72CF}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>